--- a/Get_Properties_Notebook-WI/gp_start_folder/pyrdz_extracted_properties.xlsx
+++ b/Get_Properties_Notebook-WI/gp_start_folder/pyrdz_extracted_properties.xlsx
@@ -1464,7 +1464,7 @@
         <v>722.480853908772</v>
       </c>
       <c r="AB2">
-        <v>0.8320987908835648</v>
+        <v>0.8320987908835645</v>
       </c>
       <c r="AC2">
         <v>0.13315</v>
@@ -1940,7 +1940,7 @@
         <v>720.8970590326221</v>
       </c>
       <c r="AB3">
-        <v>0.8337869665741743</v>
+        <v>0.8337869665741744</v>
       </c>
       <c r="AC3">
         <v>0.13716</v>
@@ -2096,7 +2096,7 @@
         <v>3.024503232772713</v>
       </c>
       <c r="CC3">
-        <v>9.360483030812377</v>
+        <v>9.360483030812379</v>
       </c>
       <c r="CD3">
         <v>6.399321866370697</v>
@@ -2701,7 +2701,7 @@
         <v>0.01017330517237955</v>
       </c>
       <c r="DT4">
-        <v>0.02022521394149848</v>
+        <v>0.02022521394009322</v>
       </c>
       <c r="DU4">
         <v>0.003037520362615836</v>
@@ -3075,7 +3075,7 @@
         <v>3.085920212343944</v>
       </c>
       <c r="CL5">
-        <v>6.592371765167756</v>
+        <v>6.592371765167755</v>
       </c>
       <c r="CM5">
         <v>5.887236968423968</v>
@@ -3171,7 +3171,7 @@
         <v>0.01463330029722582</v>
       </c>
       <c r="DR5">
-        <v>0.06811255916221085</v>
+        <v>0.06811255916262812</v>
       </c>
       <c r="DS5">
         <v>0.01024915171696886</v>
@@ -3210,7 +3210,7 @@
         <v>6.07722</v>
       </c>
       <c r="EE5">
-        <v>0.3849722222222223</v>
+        <v>0.3849722222222222</v>
       </c>
       <c r="EF5" t="s">
         <v>175</v>
